--- a/att/src/main/resources/incidents/Tennis/TennisE2E_short.xlsx
+++ b/att/src/main/resources/incidents/Tennis/TennisE2E_short.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelumalai\att\sportsbookautomation\src\main\resources\incidents\Tennis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgurjar\project\feature_att\sportsbookautomation\src\main\resources\incidents\Tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A49090-8298-4AF1-9C9F-C0BC053E405E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="101">
   <si>
     <t>matchTime</t>
   </si>
@@ -311,9 +312,6 @@
     <t>6,6,0</t>
   </si>
   <si>
-    <t>Match Betting</t>
-  </si>
-  <si>
     <t>Set 1 Winner</t>
   </si>
   <si>
@@ -324,6 +322,15 @@
   </si>
   <si>
     <t>Set 2 Winner</t>
+  </si>
+  <si>
+    <t>warmup</t>
+  </si>
+  <si>
+    <t>tennis_serves_first</t>
+  </si>
+  <si>
+    <t>Match betting</t>
   </si>
 </sst>
 </file>
@@ -654,27 +661,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375"/>
-    <col min="2" max="2" width="5.77734375"/>
-    <col min="3" max="3" width="6.44140625"/>
-    <col min="4" max="4" width="6.77734375"/>
-    <col min="5" max="5" width="8.44140625"/>
-    <col min="6" max="6" width="8.21875"/>
-    <col min="7" max="7" width="3.5546875"/>
-    <col min="8" max="8" width="5.77734375"/>
-    <col min="9" max="9" width="6.5546875"/>
-    <col min="10" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="10.81640625"/>
+    <col min="2" max="2" width="5.81640625"/>
+    <col min="3" max="3" width="6.453125"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125"/>
+    <col min="6" max="6" width="8.1796875"/>
+    <col min="7" max="7" width="3.54296875"/>
+    <col min="8" max="8" width="5.81640625"/>
+    <col min="9" max="9" width="6.54296875"/>
+    <col min="10" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,177 +710,188 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -891,30 +909,15 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -926,12 +929,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -955,55 +958,70 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1021,30 +1039,15 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1056,12 +1059,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1085,12 +1088,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1099,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -1114,26 +1117,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1151,30 +1169,15 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1186,12 +1189,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1215,12 +1218,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1229,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
@@ -1244,26 +1247,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1281,30 +1299,15 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,12 +1319,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1345,12 +1348,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1359,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
@@ -1374,26 +1377,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1411,30 +1429,15 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1446,12 +1449,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1475,12 +1478,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1489,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
@@ -1503,7 +1506,65 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1517,16 +1578,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>12</v>
       </c>
@@ -1569,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1627,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1685,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1728,7 +1789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1757,7 +1818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1815,7 +1876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1858,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1887,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1945,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -1959,7 +2020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1988,7 +2049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2017,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -2046,7 +2107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -2075,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>12</v>
       </c>
@@ -2089,7 +2150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -2118,7 +2179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2147,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +2237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -2205,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>12</v>
       </c>
@@ -2219,7 +2280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -2248,7 +2309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2277,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2306,7 +2367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2338,7 +2399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2371,19 +2432,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.44140625"/>
-    <col min="2" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="32.453125"/>
+    <col min="2" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>71</v>
@@ -2392,9 +2453,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -2403,9 +2464,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -2414,9 +2475,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -2425,9 +2486,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -2436,9 +2497,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2447,9 +2508,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -2458,9 +2519,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2469,9 +2530,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -2480,9 +2541,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -2505,15 +2566,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875"/>
-    <col min="2" max="2" width="8.5546875"/>
-    <col min="3" max="3" width="13.5546875"/>
-    <col min="4" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="17.1796875"/>
+    <col min="2" max="2" width="8.54296875"/>
+    <col min="3" max="3" width="13.54296875"/>
+    <col min="4" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2524,7 +2585,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2546,7 +2607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2557,7 +2618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2568,7 +2629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2579,7 +2640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2590,7 +2651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
